--- a/chapter7.xlsx
+++ b/chapter7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D 資料匣\antigravity 使用匣\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D 資料匣\課程\勤益課程\資訊安全\網頁前後測\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F023C82-1EC8-451E-9A53-ADDBB74D6204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BED520F-8F9F-4226-937A-43CF7F9A9131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37080" yWindow="-4760" windowWidth="28800" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35480" yWindow="-3160" windowWidth="28800" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1463,7 +1463,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A3" sqref="A3:F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -1507,19 +1507,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -1527,10 +1527,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1539,7 +1539,7 @@
         <v>15</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -1547,10 +1547,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1559,7 +1559,7 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -1567,19 +1567,19 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1587,19 +1587,19 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -1607,19 +1607,19 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
       <c r="F8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -1627,19 +1627,19 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
       <c r="F9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -1647,19 +1647,19 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -1670,13 +1670,13 @@
         <v>47</v>
       </c>
       <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1687,19 +1687,19 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -1707,7 +1707,7 @@
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
         <v>58</v>
@@ -1716,10 +1716,10 @@
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -1727,19 +1727,19 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -1750,10 +1750,10 @@
         <v>67</v>
       </c>
       <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
         <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
       </c>
       <c r="E15" t="s">
         <v>70</v>
@@ -1767,19 +1767,19 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
         <v>72</v>
       </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
-      </c>
       <c r="F16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -1790,13 +1790,13 @@
         <v>77</v>
       </c>
       <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
         <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" t="s">
-        <v>80</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1827,19 +1827,19 @@
         <v>86</v>
       </c>
       <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
         <v>87</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" t="s">
-        <v>89</v>
       </c>
       <c r="E19" t="s">
         <v>90</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -1847,19 +1847,19 @@
         <v>91</v>
       </c>
       <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
         <v>92</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>93</v>
-      </c>
-      <c r="D20" t="s">
-        <v>94</v>
       </c>
       <c r="E20" t="s">
         <v>95</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -1867,10 +1867,10 @@
         <v>96</v>
       </c>
       <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
         <v>97</v>
-      </c>
-      <c r="C21" t="s">
-        <v>98</v>
       </c>
       <c r="D21" t="s">
         <v>99</v>
@@ -1879,7 +1879,7 @@
         <v>100</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -1890,13 +1890,13 @@
         <v>102</v>
       </c>
       <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
         <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" t="s">
-        <v>104</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1913,10 +1913,10 @@
         <v>107</v>
       </c>
       <c r="D23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
         <v>108</v>
-      </c>
-      <c r="E23" t="s">
-        <v>109</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1927,10 +1927,10 @@
         <v>110</v>
       </c>
       <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
         <v>109</v>
-      </c>
-      <c r="C24" t="s">
-        <v>106</v>
       </c>
       <c r="D24" t="s">
         <v>108</v>
@@ -1939,7 +1939,7 @@
         <v>111</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -1947,7 +1947,7 @@
         <v>112</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
         <v>106</v>
@@ -1956,10 +1956,10 @@
         <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -1967,19 +1967,19 @@
         <v>113</v>
       </c>
       <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
         <v>114</v>
-      </c>
-      <c r="C26" t="s">
-        <v>115</v>
       </c>
       <c r="D26" t="s">
         <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -1987,19 +1987,19 @@
         <v>118</v>
       </c>
       <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>120</v>
-      </c>
-      <c r="D27" t="s">
-        <v>121</v>
       </c>
       <c r="E27" t="s">
         <v>122</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -2007,19 +2007,19 @@
         <v>123</v>
       </c>
       <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
         <v>124</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>125</v>
-      </c>
-      <c r="D28" t="s">
-        <v>126</v>
       </c>
       <c r="E28" t="s">
         <v>127</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -2027,19 +2027,19 @@
         <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
         <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -2047,19 +2047,19 @@
         <v>133</v>
       </c>
       <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
         <v>134</v>
       </c>
-      <c r="C30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>108</v>
       </c>
-      <c r="E30" t="s">
-        <v>109</v>
-      </c>
       <c r="F30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -2067,19 +2067,19 @@
         <v>135</v>
       </c>
       <c r="B31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" t="s">
         <v>136</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>137</v>
-      </c>
-      <c r="D31" t="s">
-        <v>138</v>
       </c>
       <c r="E31" t="s">
         <v>139</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -2087,19 +2087,19 @@
         <v>140</v>
       </c>
       <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" t="s">
         <v>141</v>
       </c>
-      <c r="C32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" t="s">
-        <v>144</v>
-      </c>
       <c r="F32">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
@@ -2107,19 +2107,19 @@
         <v>145</v>
       </c>
       <c r="B33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" t="s">
         <v>146</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>18</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>147</v>
       </c>
-      <c r="E33" t="s">
-        <v>148</v>
-      </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -2127,19 +2127,19 @@
         <v>149</v>
       </c>
       <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
         <v>150</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>68</v>
-      </c>
-      <c r="D34" t="s">
-        <v>69</v>
       </c>
       <c r="E34" t="s">
         <v>70</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -2147,19 +2147,19 @@
         <v>151</v>
       </c>
       <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" t="s">
         <v>152</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>153</v>
       </c>
-      <c r="D35" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" t="s">
-        <v>155</v>
-      </c>
       <c r="F35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
@@ -2167,19 +2167,19 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
         <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -2187,19 +2187,19 @@
         <v>161</v>
       </c>
       <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" t="s">
         <v>162</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
         <v>163</v>
       </c>
-      <c r="D37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" t="s">
-        <v>55</v>
-      </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -2207,19 +2207,19 @@
         <v>165</v>
       </c>
       <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
         <v>163</v>
       </c>
-      <c r="C38" t="s">
-        <v>162</v>
-      </c>
       <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" t="s">
         <v>164</v>
       </c>
-      <c r="E38" t="s">
-        <v>55</v>
-      </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
@@ -2227,19 +2227,19 @@
         <v>166</v>
       </c>
       <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
         <v>167</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>93</v>
       </c>
-      <c r="D39" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" t="s">
-        <v>168</v>
-      </c>
       <c r="F39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -2247,19 +2247,19 @@
         <v>169</v>
       </c>
       <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" t="s">
         <v>170</v>
       </c>
-      <c r="C40" t="s">
-        <v>171</v>
-      </c>
       <c r="D40" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" t="s">
         <v>172</v>
       </c>
-      <c r="E40" t="s">
-        <v>173</v>
-      </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -2270,10 +2270,10 @@
         <v>171</v>
       </c>
       <c r="C41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" t="s">
         <v>170</v>
-      </c>
-      <c r="D41" t="s">
-        <v>172</v>
       </c>
       <c r="E41" t="s">
         <v>173</v>
@@ -2287,19 +2287,19 @@
         <v>175</v>
       </c>
       <c r="B42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" t="s">
+        <v>179</v>
+      </c>
+      <c r="E42" t="s">
         <v>176</v>
       </c>
-      <c r="C42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" t="s">
-        <v>178</v>
-      </c>
-      <c r="E42" t="s">
-        <v>179</v>
-      </c>
       <c r="F42">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
@@ -2310,13 +2310,13 @@
         <v>181</v>
       </c>
       <c r="C43" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" t="s">
         <v>182</v>
-      </c>
-      <c r="D43" t="s">
-        <v>183</v>
-      </c>
-      <c r="E43" t="s">
-        <v>184</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2327,10 +2327,10 @@
         <v>185</v>
       </c>
       <c r="B44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" t="s">
         <v>186</v>
-      </c>
-      <c r="C44" t="s">
-        <v>187</v>
       </c>
       <c r="D44" t="s">
         <v>188</v>
@@ -2339,7 +2339,7 @@
         <v>189</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
@@ -2347,19 +2347,19 @@
         <v>190</v>
       </c>
       <c r="B45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" t="s">
         <v>191</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" t="s">
         <v>192</v>
       </c>
-      <c r="D45" t="s">
-        <v>193</v>
-      </c>
-      <c r="E45" t="s">
-        <v>194</v>
-      </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -2367,10 +2367,10 @@
         <v>195</v>
       </c>
       <c r="B46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" t="s">
         <v>196</v>
-      </c>
-      <c r="C46" t="s">
-        <v>197</v>
       </c>
       <c r="D46" t="s">
         <v>162</v>
@@ -2379,7 +2379,7 @@
         <v>198</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -2387,19 +2387,19 @@
         <v>199</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s">
         <v>201</v>
       </c>
       <c r="D47" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" t="s">
         <v>202</v>
       </c>
-      <c r="E47" t="s">
-        <v>203</v>
-      </c>
       <c r="F47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
@@ -2427,10 +2427,10 @@
         <v>208</v>
       </c>
       <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" t="s">
         <v>209</v>
-      </c>
-      <c r="C49" t="s">
-        <v>93</v>
       </c>
       <c r="D49" t="s">
         <v>95</v>
@@ -2439,7 +2439,7 @@
         <v>168</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
@@ -2447,19 +2447,19 @@
         <v>210</v>
       </c>
       <c r="B50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C50" t="s">
         <v>212</v>
       </c>
       <c r="D50" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E50" t="s">
         <v>214</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
@@ -2467,19 +2467,19 @@
         <v>215</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C51" t="s">
         <v>217</v>
       </c>
       <c r="D51" t="s">
+        <v>216</v>
+      </c>
+      <c r="E51" t="s">
         <v>218</v>
       </c>
-      <c r="E51" t="s">
-        <v>219</v>
-      </c>
       <c r="F51">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -2490,13 +2490,13 @@
         <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
         <v>108</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2507,19 +2507,19 @@
         <v>221</v>
       </c>
       <c r="B53" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D53" t="s">
         <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
@@ -2530,10 +2530,10 @@
         <v>107</v>
       </c>
       <c r="C54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" t="s">
         <v>106</v>
-      </c>
-      <c r="D54" t="s">
-        <v>108</v>
       </c>
       <c r="E54" t="s">
         <v>109</v>
@@ -2550,13 +2550,13 @@
         <v>228</v>
       </c>
       <c r="C55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" t="s">
         <v>229</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>230</v>
-      </c>
-      <c r="E55" t="s">
-        <v>231</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2567,19 +2567,19 @@
         <v>232</v>
       </c>
       <c r="B56" t="s">
-        <v>233</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
         <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>108</v>
+        <v>233</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
@@ -2587,19 +2587,19 @@
         <v>234</v>
       </c>
       <c r="B57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C57" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D57" t="s">
         <v>237</v>
       </c>
       <c r="E57" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
@@ -2607,19 +2607,19 @@
         <v>239</v>
       </c>
       <c r="B58" t="s">
+        <v>241</v>
+      </c>
+      <c r="C58" t="s">
+        <v>242</v>
+      </c>
+      <c r="D58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" t="s">
         <v>240</v>
       </c>
-      <c r="C58" t="s">
-        <v>241</v>
-      </c>
-      <c r="D58" t="s">
-        <v>242</v>
-      </c>
-      <c r="E58" t="s">
-        <v>162</v>
-      </c>
       <c r="F58">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
@@ -2627,19 +2627,19 @@
         <v>243</v>
       </c>
       <c r="B59" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" t="s">
         <v>244</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>245</v>
       </c>
-      <c r="D59" t="s">
-        <v>246</v>
-      </c>
-      <c r="E59" t="s">
-        <v>247</v>
-      </c>
       <c r="F59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
@@ -2647,19 +2647,19 @@
         <v>248</v>
       </c>
       <c r="B60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" t="s">
         <v>249</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" t="s">
         <v>250</v>
       </c>
-      <c r="D60" t="s">
-        <v>153</v>
-      </c>
-      <c r="E60" t="s">
-        <v>207</v>
-      </c>
       <c r="F60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
@@ -2667,19 +2667,19 @@
         <v>251</v>
       </c>
       <c r="B61" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C61" t="s">
         <v>253</v>
       </c>
       <c r="D61" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E61" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
@@ -2687,19 +2687,19 @@
         <v>256</v>
       </c>
       <c r="B62" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" t="s">
         <v>257</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E62" t="s">
         <v>258</v>
       </c>
-      <c r="D62" t="s">
-        <v>213</v>
-      </c>
-      <c r="E62" t="s">
-        <v>259</v>
-      </c>
       <c r="F62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
@@ -2710,10 +2710,10 @@
         <v>261</v>
       </c>
       <c r="C63" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" t="s">
         <v>262</v>
-      </c>
-      <c r="D63" t="s">
-        <v>263</v>
       </c>
       <c r="E63" t="s">
         <v>264</v>
@@ -2747,10 +2747,10 @@
         <v>270</v>
       </c>
       <c r="B65" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" t="s">
         <v>153</v>
-      </c>
-      <c r="C65" t="s">
-        <v>207</v>
       </c>
       <c r="D65" t="s">
         <v>271</v>
@@ -2759,7 +2759,7 @@
         <v>272</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
@@ -2767,19 +2767,19 @@
         <v>273</v>
       </c>
       <c r="B66" t="s">
+        <v>277</v>
+      </c>
+      <c r="C66" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" t="s">
         <v>274</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
         <v>275</v>
       </c>
-      <c r="D66" t="s">
-        <v>276</v>
-      </c>
-      <c r="E66" t="s">
-        <v>277</v>
-      </c>
       <c r="F66">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
@@ -2790,13 +2790,13 @@
         <v>279</v>
       </c>
       <c r="C67" t="s">
+        <v>281</v>
+      </c>
+      <c r="D67" t="s">
+        <v>282</v>
+      </c>
+      <c r="E67" t="s">
         <v>280</v>
-      </c>
-      <c r="D67" t="s">
-        <v>281</v>
-      </c>
-      <c r="E67" t="s">
-        <v>282</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2810,13 +2810,13 @@
         <v>284</v>
       </c>
       <c r="C68" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D68" t="s">
         <v>286</v>
       </c>
       <c r="E68" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -2830,13 +2830,13 @@
         <v>289</v>
       </c>
       <c r="C69" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D69" t="s">
         <v>272</v>
       </c>
       <c r="E69" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -2847,19 +2847,19 @@
         <v>291</v>
       </c>
       <c r="B70" t="s">
+        <v>293</v>
+      </c>
+      <c r="C70" t="s">
         <v>292</v>
       </c>
-      <c r="C70" t="s">
-        <v>293</v>
-      </c>
       <c r="D70" t="s">
+        <v>295</v>
+      </c>
+      <c r="E70" t="s">
         <v>294</v>
       </c>
-      <c r="E70" t="s">
-        <v>295</v>
-      </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
@@ -2867,19 +2867,19 @@
         <v>296</v>
       </c>
       <c r="B71" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C71" t="s">
         <v>298</v>
       </c>
       <c r="D71" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E71" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -2890,13 +2890,13 @@
         <v>302</v>
       </c>
       <c r="C72" t="s">
+        <v>304</v>
+      </c>
+      <c r="D72" t="s">
+        <v>305</v>
+      </c>
+      <c r="E72" t="s">
         <v>303</v>
-      </c>
-      <c r="D72" t="s">
-        <v>304</v>
-      </c>
-      <c r="E72" t="s">
-        <v>305</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -2910,13 +2910,13 @@
         <v>307</v>
       </c>
       <c r="C73" t="s">
+        <v>309</v>
+      </c>
+      <c r="D73" t="s">
+        <v>310</v>
+      </c>
+      <c r="E73" t="s">
         <v>308</v>
-      </c>
-      <c r="D73" t="s">
-        <v>309</v>
-      </c>
-      <c r="E73" t="s">
-        <v>310</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -2927,7 +2927,7 @@
         <v>311</v>
       </c>
       <c r="B74" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C74" t="s">
         <v>313</v>
@@ -2936,10 +2936,10 @@
         <v>314</v>
       </c>
       <c r="E74" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -2947,19 +2947,19 @@
         <v>316</v>
       </c>
       <c r="B75" t="s">
+        <v>320</v>
+      </c>
+      <c r="C75" t="s">
         <v>317</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>318</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>319</v>
       </c>
-      <c r="E75" t="s">
-        <v>320</v>
-      </c>
       <c r="F75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
@@ -2970,13 +2970,13 @@
         <v>322</v>
       </c>
       <c r="C76" t="s">
+        <v>323</v>
+      </c>
+      <c r="D76" t="s">
         <v>162</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>198</v>
-      </c>
-      <c r="E76" t="s">
-        <v>323</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3007,19 +3007,19 @@
         <v>329</v>
       </c>
       <c r="B78" t="s">
+        <v>318</v>
+      </c>
+      <c r="C78" t="s">
         <v>330</v>
-      </c>
-      <c r="C78" t="s">
-        <v>320</v>
       </c>
       <c r="D78" t="s">
         <v>319</v>
       </c>
       <c r="E78" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
@@ -3030,13 +3030,13 @@
         <v>332</v>
       </c>
       <c r="C79" t="s">
+        <v>319</v>
+      </c>
+      <c r="D79" t="s">
         <v>333</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>334</v>
-      </c>
-      <c r="E79" t="s">
-        <v>319</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3050,13 +3050,13 @@
         <v>336</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="D80" t="s">
         <v>271</v>
       </c>
       <c r="E80" t="s">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3067,19 +3067,19 @@
         <v>337</v>
       </c>
       <c r="B81" t="s">
+        <v>339</v>
+      </c>
+      <c r="C81" t="s">
+        <v>314</v>
+      </c>
+      <c r="D81" t="s">
         <v>338</v>
       </c>
-      <c r="C81" t="s">
-        <v>339</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>313</v>
       </c>
-      <c r="E81" t="s">
-        <v>314</v>
-      </c>
       <c r="F81">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -3087,19 +3087,19 @@
         <v>340</v>
       </c>
       <c r="B82" t="s">
+        <v>313</v>
+      </c>
+      <c r="C82" t="s">
         <v>341</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>314</v>
+      </c>
+      <c r="E82" t="s">
         <v>342</v>
       </c>
-      <c r="D82" t="s">
-        <v>313</v>
-      </c>
-      <c r="E82" t="s">
-        <v>314</v>
-      </c>
       <c r="F82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
@@ -3107,19 +3107,19 @@
         <v>343</v>
       </c>
       <c r="B83" t="s">
+        <v>346</v>
+      </c>
+      <c r="C83" t="s">
         <v>344</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>347</v>
+      </c>
+      <c r="E83" t="s">
         <v>345</v>
       </c>
-      <c r="D83" t="s">
-        <v>346</v>
-      </c>
-      <c r="E83" t="s">
-        <v>347</v>
-      </c>
       <c r="F83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
@@ -3127,19 +3127,19 @@
         <v>348</v>
       </c>
       <c r="B84" t="s">
+        <v>328</v>
+      </c>
+      <c r="C84" t="s">
+        <v>327</v>
+      </c>
+      <c r="D84" t="s">
         <v>349</v>
       </c>
-      <c r="C84" t="s">
+      <c r="E84" t="s">
         <v>350</v>
       </c>
-      <c r="D84" t="s">
-        <v>327</v>
-      </c>
-      <c r="E84" t="s">
-        <v>328</v>
-      </c>
       <c r="F84">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
